--- a/barnehage/kgdata.xlsx
+++ b/barnehage/kgdata.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16940" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="foresatt" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,25 +13,20 @@
     <sheet name="soknad" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -44,27 +40,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -77,17 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -459,34 +437,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>foresatt_id</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>foresatt_navn</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>foresatt_adresse</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>foresatt_tlfnr</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>foresatt_pnr</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -494,27 +472,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kristian Espevik</t>
+          <t>Kris</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sigyns vei 4b</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90900900</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>020202909090</t>
-        </is>
+          <t>Horehauen 10</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>99999998</v>
+      </c>
+      <c r="F2" t="n">
+        <v>101010010110</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -522,23 +496,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Brage Kristoffersen</t>
+          <t>Brage k</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sigyns vei 4b</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99114164</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>030603909090</t>
-        </is>
+          <t>Horehauen 10</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>99999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>90909090909</v>
       </c>
     </row>
   </sheetData>
@@ -561,29 +531,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>barnehage_id</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>barnehage_navn</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>barnehage_antall_plasser</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>barnehage_ledige_plasser</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -591,7 +561,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sunshine Preschool</t>
+          <t>Riflegata Barnehage</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -602,7 +572,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -610,7 +580,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Happy Days Nursery</t>
+          <t>Sinsen Barnehage</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -621,7 +591,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -629,7 +599,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>123 Learning Center</t>
+          <t>Espira Gartnerløkka Barnehage</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -640,7 +610,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -648,7 +618,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ABC Kindergarten</t>
+          <t>Seilduken Barnehage</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -659,7 +629,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
@@ -667,7 +637,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tiny Tots Academy</t>
+          <t>Petersborg Barnehage</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -678,7 +648,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
@@ -686,7 +656,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Giggles and Grins Childcare</t>
+          <t>Hovin Barnehage</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -697,7 +667,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
@@ -705,7 +675,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Playful Pals Daycare</t>
+          <t>Brobekk Barnehage</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -735,28 +705,26 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>barn_id</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>barn_pnr</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>08092299876</t>
-        </is>
+      <c r="C2" t="n">
+        <v>696969696969</v>
       </c>
     </row>
   </sheetData>
@@ -779,69 +747,69 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>sok_id</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>foresatt_1</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>foresatt_2</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>barn_1</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>fr_barnevern</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>fr_sykd_familie</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>fr_sykd_barn</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>fr_annet</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>barnehager_prioritert</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>sosken__i_barnehagen</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>tidspunkt_oppstart</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>brutto_inntekt</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -866,7 +834,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Seilduken Barnehage</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -875,10 +843,8 @@
           <t>2024-11-12</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>1200000</t>
-        </is>
+      <c r="M2" t="n">
+        <v>1200000</v>
       </c>
     </row>
   </sheetData>

--- a/barnehage/kgdata.xlsx
+++ b/barnehage/kgdata.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,23 +468,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kris</t>
+          <t>Elina M</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Horehauen 10</t>
+          <t>Sigyns vei 4b</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>99999998</v>
+        <v>90083999</v>
       </c>
       <c r="F2" t="n">
-        <v>101010010110</v>
+        <v>12120109909</v>
       </c>
     </row>
     <row r="3">
@@ -492,22 +492,70 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Endi M</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sigyns vei 4b</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>97979797</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12120099999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Kris</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Horehauen 10</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>99999998</v>
+      </c>
+      <c r="F4" t="n">
+        <v>101010010110</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Brage k</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Horehauen 10</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E5" t="n">
         <v>99999999</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F5" t="n">
         <v>90909090909</v>
       </c>
     </row>
@@ -696,7 +744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,9 +769,20 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12122298762</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>696969696969</v>
       </c>
     </row>
@@ -738,7 +797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,37 +872,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
         <v>2</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Seilduken Barnehage</t>
+          <t>Riflegata Barnehage</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Seilduken Barnehage</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>2024-11-12</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M3" t="n">
         <v>1200000</v>
       </c>
     </row>
